--- a/data_year/zb/公共管理、社会保障及其他/人民检察院出庭公诉情况/人民检察院二审出庭公诉案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院出庭公诉情况/人民检察院二审出庭公诉案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,140 +463,80 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9565</v>
+        <v>11992</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>8747</v>
+        <v>10690</v>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F2" t="n">
-        <v>731</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10968</v>
+        <v>13185</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>9913</v>
+        <v>11810</v>
       </c>
       <c r="E3" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="F3" t="n">
-        <v>938</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10956</v>
+        <v>17906</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>9966</v>
+        <v>16239</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="F4" t="n">
-        <v>880</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11992</v>
+        <v>23735</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>10690</v>
+        <v>21494</v>
       </c>
       <c r="E5" t="n">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="F5" t="n">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13185</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>11810</v>
-      </c>
-      <c r="E6" t="n">
-        <v>146</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>17906</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>16239</v>
-      </c>
-      <c r="E7" t="n">
-        <v>169</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23735</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>21494</v>
-      </c>
-      <c r="E8" t="n">
-        <v>212</v>
-      </c>
-      <c r="F8" t="n">
         <v>2029</v>
       </c>
     </row>
